--- a/Modules.xlsx
+++ b/Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl-Otto\Documents\src\NVDA\vismaadministration-nvdaaddon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CBBE75-D2A8-41EE-B4B6-65439A26DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66AE9F-8D55-455A-85D6-50FB8977261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1073" yWindow="1073" windowWidth="23039" windowHeight="12232" xr2:uid="{39FB225B-BBE9-4F0B-8BF0-CBEEF24B3FC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>WindowText</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>resultatbudget</t>
+  </si>
+  <si>
+    <t>konteringsmallar</t>
+  </si>
+  <si>
+    <t>Konteringsmallar</t>
+  </si>
+  <si>
+    <t>gamla journaler</t>
+  </si>
+  <si>
+    <t>Gamla journaler</t>
+  </si>
+  <si>
+    <t>momskontroll</t>
+  </si>
+  <si>
+    <t>Momskontroll</t>
+  </si>
+  <si>
+    <t>Periodiseringar</t>
+  </si>
+  <si>
+    <t>periodiseringar</t>
+  </si>
+  <si>
+    <t>fakturahantering</t>
+  </si>
+  <si>
+    <t>Fakturahantering</t>
   </si>
 </sst>
 </file>
@@ -565,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F430CB-03D6-4544-93F8-EF76FF5B75D2}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -817,6 +847,46 @@
         <v>31</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
